--- a/Assets/Configs/RawTable/Achievement.xlsx
+++ b/Assets/Configs/RawTable/Achievement.xlsx
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1910,7 +1910,7 @@
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>-1</v>
@@ -1939,7 +1939,7 @@
         <v>-1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>-1</v>

--- a/Assets/Configs/RawTable/Achievement.xlsx
+++ b/Assets/Configs/RawTable/Achievement.xlsx
@@ -1,57 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C18476-9F4E-4564-AB79-A859B3331124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hasee</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>id</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>成就名称</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>描述</t>
@@ -63,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -101,18 +123,6 @@
     <t>-1,</t>
   </si>
   <si>
-    <t>建设5个建筑</t>
-  </si>
-  <si>
-    <t>建设10个建筑</t>
-  </si>
-  <si>
-    <t>建设20个建筑</t>
-  </si>
-  <si>
-    <t>建设40个建筑</t>
-  </si>
-  <si>
     <t>建设5个房屋</t>
   </si>
   <si>
@@ -122,83 +132,95 @@
     <t>建设20个房屋</t>
   </si>
   <si>
-    <t>建设5个生产建筑</t>
+    <t>人口达到10</t>
+  </si>
+  <si>
+    <t>人口达到20</t>
+  </si>
+  <si>
+    <t>人口达到50</t>
+  </si>
+  <si>
+    <t>人口达到100</t>
+  </si>
+  <si>
+    <t>获得100粮食</t>
+  </si>
+  <si>
+    <t>获得500粮食</t>
+  </si>
+  <si>
+    <t>获得1000粮食</t>
+  </si>
+  <si>
+    <t>获得100木材</t>
+  </si>
+  <si>
+    <t>获得500木材</t>
+  </si>
+  <si>
+    <t>获得1000木材</t>
+  </si>
+  <si>
+    <t>获得100石头</t>
+  </si>
+  <si>
+    <t>获得500石头</t>
+  </si>
+  <si>
+    <t>获得1000石头</t>
+  </si>
+  <si>
+    <t>修建宝塔</t>
+  </si>
+  <si>
+    <t>1006,</t>
+  </si>
+  <si>
+    <t>修建三井</t>
+  </si>
+  <si>
+    <t>建设10个房屋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建设10个生产建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建设20个生产建筑</t>
-  </si>
-  <si>
-    <t>人口达到10</t>
-  </si>
-  <si>
-    <t>人口达到20</t>
-  </si>
-  <si>
-    <t>人口达到50</t>
-  </si>
-  <si>
-    <t>人口达到100</t>
-  </si>
-  <si>
-    <t>获得100粮食</t>
-  </si>
-  <si>
-    <t>2001,</t>
-  </si>
-  <si>
-    <t>获得500粮食</t>
-  </si>
-  <si>
-    <t>获得1000粮食</t>
-  </si>
-  <si>
-    <t>获得100木材</t>
-  </si>
-  <si>
-    <t>获得500木材</t>
-  </si>
-  <si>
-    <t>获得1000木材</t>
-  </si>
-  <si>
-    <t>获得100石头</t>
-  </si>
-  <si>
-    <t>2004,</t>
-  </si>
-  <si>
-    <t>获得500石头</t>
-  </si>
-  <si>
-    <t>获得1000石头</t>
-  </si>
-  <si>
-    <t>修建宝塔</t>
-  </si>
-  <si>
-    <t>1006,</t>
-  </si>
-  <si>
-    <t>修建三井</t>
-  </si>
-  <si>
-    <t>1008,1009,1010,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设50个生产建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1104,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设15个建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设30个建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设50个建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设100个建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,348 +232,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -559,338 +267,52 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I27" totalsRowShown="0">
+  <autoFilter ref="A1:I27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="8" name="Content"/>
-    <tableColumn id="6" name="UnlockCondition"/>
-    <tableColumn id="4" name="Type"/>
-    <tableColumn id="5" name="TargetID"/>
-    <tableColumn id="3" name="TargetNum"/>
-    <tableColumn id="7" name="RequireTask"/>
-    <tableColumn id="9" name="RewardGroup"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Content"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="UnlockCondition"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TargetID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TargetNum"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="RequireTask"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="RewardGroup"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1148,31 +570,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="27.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
-    <col min="5" max="6" width="16.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="22.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="14.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1200,165 +622,165 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
         <v>11</v>
       </c>
       <c r="F7">
@@ -1367,27 +789,27 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>11</v>
       </c>
       <c r="F8">
@@ -1396,27 +818,27 @@
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>11</v>
       </c>
       <c r="F9">
@@ -1425,109 +847,109 @@
       <c r="G9">
         <v>20</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
         <v>11</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
         <v>8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>11</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>11</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20</v>
-      </c>
-      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1541,22 +963,22 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -1570,22 +992,22 @@
       <c r="G14">
         <v>20</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -1599,22 +1021,22 @@
       <c r="G15">
         <v>50</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>13</v>
@@ -1628,22 +1050,22 @@
       <c r="G16">
         <v>100</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1657,22 +1079,22 @@
       <c r="G17">
         <v>100</v>
       </c>
-      <c r="H17" t="s">
-        <v>27</v>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1686,22 +1108,22 @@
       <c r="G18">
         <v>500</v>
       </c>
-      <c r="H18" t="s">
-        <v>27</v>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>16</v>
@@ -1715,22 +1137,22 @@
       <c r="G19">
         <v>1000</v>
       </c>
-      <c r="H19" t="s">
-        <v>27</v>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1744,22 +1166,22 @@
       <c r="G20">
         <v>100</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -1773,22 +1195,22 @@
       <c r="G21">
         <v>500</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>19</v>
@@ -1802,22 +1224,22 @@
       <c r="G22">
         <v>1000</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -1831,22 +1253,22 @@
       <c r="G23">
         <v>100</v>
       </c>
-      <c r="H23" t="s">
-        <v>34</v>
+      <c r="H23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>21</v>
@@ -1860,22 +1282,22 @@
       <c r="G24">
         <v>500</v>
       </c>
-      <c r="H24" t="s">
-        <v>34</v>
+      <c r="H24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>22</v>
@@ -1889,22 +1311,22 @@
       <c r="G25">
         <v>1000</v>
       </c>
-      <c r="H25" t="s">
-        <v>34</v>
+      <c r="H25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -1919,21 +1341,21 @@
         <v>-1</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -1947,19 +1369,19 @@
       <c r="G27">
         <v>-1</v>
       </c>
-      <c r="H27" t="s">
-        <v>40</v>
+      <c r="H27" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Configs/RawTable/Achievement.xlsx
+++ b/Assets/Configs/RawTable/Achievement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\SimGame\Assets\Configs\RawTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C18476-9F4E-4564-AB79-A859B3331124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7558230B-208D-4363-8FF9-6B4555FEC88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10164" yWindow="3216" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievement" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -171,12 +171,6 @@
     <t>获得1000石头</t>
   </si>
   <si>
-    <t>修建宝塔</t>
-  </si>
-  <si>
-    <t>1006,</t>
-  </si>
-  <si>
     <t>修建三井</t>
   </si>
   <si>
@@ -196,23 +190,67 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>建设15个建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设30个建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设50个建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设100个建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建六和塔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修建三潭映月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1211,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1104,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>建设15个建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设30个建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设50个建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设100个建筑</t>
+    <t>获得100石砖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得500石砖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1000石砖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得100铁材</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得500铁材</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1000铁材</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +319,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -301,8 +342,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I34" totalsRowShown="0">
+  <autoFilter ref="A1:I34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -576,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -656,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -685,10 +726,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -714,10 +755,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -743,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -801,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -859,10 +900,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -888,10 +929,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -917,10 +958,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1322,11 +1363,11 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -1340,8 +1381,8 @@
       <c r="G26">
         <v>-1</v>
       </c>
-      <c r="H26" t="s">
-        <v>29</v>
+      <c r="H26" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1352,10 +1393,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -1370,9 +1411,212 @@
         <v>-1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>500</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
     </row>
